--- a/biology/Zoologie/Acanthurus_thompsoni/Acanthurus_thompsoni.xlsx
+++ b/biology/Zoologie/Acanthurus_thompsoni/Acanthurus_thompsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirurgien de Thompson
-Acanthurus thompsoni, communément appelé le Chirurgien de Thompson[2], est une espèce de poissons de la famille des Acanthuridae.
+Acanthurus thompsoni, communément appelé le Chirurgien de Thompson, est une espèce de poissons de la famille des Acanthuridae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Acanthurus thompsoni a été initialement décrite en 1923 par Henry Weed Fowler sous le protonyme d’Hepatus thompsoni.
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthurus thompsoni est présent dans l'océan Indien et dans l'océan Pacifique. Il se rencontre notamment des Indes orientales aux Philippines et du Japon à l'Océanie[3], et ce à une profondeur généralement comprise entre 5 et 70 m[4], mais pouvant s'étendre de 4 à 119 m[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthurus thompsoni est présent dans l'océan Indien et dans l'océan Pacifique. Il se rencontre notamment des Indes orientales aux Philippines et du Japon à l'Océanie, et ce à une profondeur généralement comprise entre 5 et 70 m, mais pouvant s'étendre de 4 à 119 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthurus thompsoni peut atteindre une longueur totale de 270 mm[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthurus thompsoni peut atteindre une longueur totale de 270 mm.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, thompsoni, lui a été donné en l'honneur de John W. Thompson, artiste et modeleur au musée Bishop d'Honolulu et qui a obtenu le spécimen type[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, thompsoni, lui a été donné en l'honneur de John W. Thompson, artiste et modeleur au musée Bishop d'Honolulu et qui a obtenu le spécimen type.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Fowler, « New or little-known Hawaiian fishes », Occasional Papers of the Bernice Pauahi Bishop Museum of Polynesian Ethnology and Natural History, Honolulu, vol. 8, no 7,‎ 1923, p. 373-392 (ISSN 0067-6160).</t>
         </is>
